--- a/src/test/resources/jacobi/test/data/DeterminantTest.xlsx
+++ b/src/test/resources/jacobi/test/data/DeterminantTest.xlsx
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,73 +1363,73 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" ref="A3:D6" si="0">EXP(-0.75*0.75)</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="B3">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C3">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="D3">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="B4">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C4">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="D4">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="B5">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C5">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="D5">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="B6">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C6">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="D6">
-        <f>EXP(-0.75*0.75)</f>
+        <f t="shared" si="0"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:C10" si="0">C4</f>
+        <f t="shared" ref="B10:C10" si="1">C4</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" ref="A11:C12" si="1">B5</f>
+        <f t="shared" ref="A11:C12" si="2">B5</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="E12" t="s">
@@ -1528,11 +1528,11 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:C16" si="2">C3</f>
+        <f t="shared" ref="B16:C16" si="3">C3</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
@@ -1542,11 +1542,11 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:C18" si="3">C5</f>
+        <f t="shared" ref="B17:C18" si="4">C5</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
@@ -1556,11 +1556,11 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="E18" t="s">
@@ -1604,11 +1604,11 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:C23" si="4">C3</f>
+        <f t="shared" ref="B22:C23" si="5">C3</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
@@ -1618,11 +1618,11 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
@@ -1632,11 +1632,11 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:C24" si="5">C6</f>
+        <f t="shared" ref="B24:C24" si="6">C6</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="E24" t="s">
@@ -1680,39 +1680,39 @@
         <v>0.56978282473092301</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:C28" si="6">C4</f>
+        <f t="shared" ref="B28:C28" si="7">C4</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ref="A29:C30" si="7">B5</f>
+        <f t="shared" ref="A29:C30" si="8">B5</f>
         <v>0.56978282473092301</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.56978282473092301</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="C30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.56978282473092301</v>
       </c>
       <c r="E30" t="s">
